--- a/data/trans_dic/P25_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece hipertensión/presión arterial alta</t>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>21,56%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>23,75%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>21,19%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,81%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>18,39%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>21,58%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>20,98%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,26; 23,41</t>
+          <t>16,47; 23,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,37; 21,91</t>
+          <t>15,19; 21,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 24,52</t>
+          <t>17,9; 24,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,68; 24,82</t>
+          <t>18,34; 25,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,48; 27,4</t>
+          <t>18,54; 24,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,62; 21,42</t>
+          <t>17,83; 23,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,45; 27,39</t>
+          <t>20,28; 26,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,5; 25,14</t>
+          <t>16,03; 21,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,12; 24,32</t>
+          <t>18,22; 24,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,22; 20,65</t>
+          <t>18,42; 25,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,03; 24,76</t>
+          <t>18,65; 25,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,15; 23,88</t>
+          <t>18,34; 24,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>19,51; 24,4</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>16,4; 20,58</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>19,04; 23,73</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>19,24; 24,67</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>19,24; 24,16</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>18,96; 23,19</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>21,45%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>15,93%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>19,03%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>19,34%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>21,05%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,77; 16,94</t>
+          <t>11,1; 17,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 17,44</t>
+          <t>11,45; 17,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,63; 18,55</t>
+          <t>12,67; 18,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,01; 24,04</t>
+          <t>15,45; 22,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,36; 22,09</t>
+          <t>13,87; 24,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 18,63</t>
+          <t>15,92; 26,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,82; 21,43</t>
+          <t>14,64; 21,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,05; 27,48</t>
+          <t>12,46; 18,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,32; 18,19</t>
+          <t>15,39; 23,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,81; 17,13</t>
+          <t>15,78; 23,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,73; 19,27</t>
+          <t>14,57; 27,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,8; 23,49</t>
+          <t>15,88; 27,59</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 18,47</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 16,91</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14,71; 19,57</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 21,74</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15,68; 23,59</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>17,01; 24,96</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>20,88%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>29,04%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>29,78%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,33%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27,91%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>24,51%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>27,37%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>26,71%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24,15%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>27,86%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>27,16%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 29,0</t>
+          <t>13,62; 27,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 32,86</t>
+          <t>19,02; 33,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,22; 33,66</t>
+          <t>19,86; 34,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>13,31; 30,8</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>21,33; 38,94</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 36,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,41; 34,74</t>
+          <t>20,49; 35,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>22,55; 36,69</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 34,86</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20,15; 38,93</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>18,62; 30,94</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>22,54; 32,49</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>21,76; 32,17</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>18,9; 29,61</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>23,01; 33,53</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>22,45; 33,13</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>18,69; 30,97</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>18,65%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20,85%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>21,33%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>19,68%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>18,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21,25%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>20,15%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>21,0%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>21,08%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>21,0%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,07; 19,68</t>
+          <t>15,43; 20,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,49; 19,82</t>
+          <t>15,54; 19,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 21,75</t>
+          <t>17,12; 21,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,33; 23,52</t>
+          <t>17,69; 23,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,76; 24,92</t>
+          <t>18,34; 23,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 20,6</t>
+          <t>18,07; 23,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,58; 24,07</t>
+          <t>19,81; 24,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,56; 24,58</t>
+          <t>16,63; 20,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 21,59</t>
+          <t>18,69; 23,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,64</t>
+          <t>19,02; 24,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,58; 22,02</t>
+          <t>18,5; 24,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,15; 23,16</t>
+          <t>18,74; 24,06</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>18,26; 21,64</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16,7; 19,62</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>18,67; 21,99</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>19,24; 23,02</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 23,02</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 22,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece hipertensión/presión arterial alta (tasa de respuesta: 99,84%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>330320</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>297952</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>340906</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>355426</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>49368</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>47308</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>422104</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>339097</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>383893</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>392618</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>51203</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>50016</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>752424</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>637050</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>724798</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>748044</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>100571</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>97324</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>272109; 393833</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>248759; 356366</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>294286; 396475</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>300453; 419889</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>42446; 57077</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40638; 54479</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>364344; 481253</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>292608; 396254</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>330427; 447899</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>331267; 460310</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>44197; 59895</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>43282; 57882</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>673007; 841810</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>567945; 712861</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>658301; 820326</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>661352; 847856</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>89641; 112589</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>87938; 107570</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>192106</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>195481</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>212958</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>259226</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13288</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15113</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>248023</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>210958</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>255262</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>266283</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13108</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14223</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>440128</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>406439</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>468221</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>525509</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>26396</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>29335</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>152495; 237775</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>157839; 238963</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>174384; 258384</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>213553; 316515</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9974; 17319</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11629; 19034</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>203370; 305369</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>170483; 258301</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>212143; 317563</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>217493; 322227</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9405; 17769</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10529; 18298</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>378342; 510289</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>351993; 464607</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>405303; 539194</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>451438; 600245</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>21400; 32197</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>23707; 34788</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86191</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>109905</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>114159</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>88292</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>114786</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>121965</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>112560</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>113959</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>200977</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>231870</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>226719</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>202251</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>57588; 116603</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>80433; 141850</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>83962; 145418</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>56289; 130244</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>83930; 147056</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>92346; 150270</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>83764; 143579</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>82260; 158949</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>157275; 246494</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>191492; 279099</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>187426; 276516</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>155369; 257423</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>302.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>552.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>622.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>475.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>434.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>608617</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>603337</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>668023</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>702944</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>62656</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>62421</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>784913</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>672021</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>751715</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>772860</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>64311</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>64239</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1393529</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1275358</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1419738</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1475804</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>126967</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>126660</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>532254; 691783</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>534550; 674712</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>589456; 743688</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>609160; 797037</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55194; 72015</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>54396; 70200</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>712332; 879353</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>599065; 746906</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>673551; 838047</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>682005; 864188</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>55793; 73687</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56668; 72725</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1286199; 1524611</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1176507; 1381829</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1315979; 1549514</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1352299; 1618171</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>115382; 138676</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>115535; 137624</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
